--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.409007</v>
+        <v>1.188145333333333</v>
       </c>
       <c r="H2">
-        <v>1.227021</v>
+        <v>3.564436</v>
       </c>
       <c r="I2">
-        <v>0.02304151636497099</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="J2">
-        <v>0.023041516364971</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.634961333333333</v>
+        <v>7.088571000000001</v>
       </c>
       <c r="N2">
-        <v>10.904884</v>
+        <v>21.265713</v>
       </c>
       <c r="O2">
-        <v>0.06179191477994574</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="P2">
-        <v>0.06179191477994575</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="Q2">
-        <v>1.486724630062667</v>
+        <v>8.422252553651999</v>
       </c>
       <c r="R2">
-        <v>13.380521670564</v>
+        <v>75.80027298286799</v>
       </c>
       <c r="S2">
-        <v>0.001423779415625013</v>
+        <v>0.008599709844827117</v>
       </c>
       <c r="T2">
-        <v>0.001423779415625013</v>
+        <v>0.008599709844827117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.409007</v>
+        <v>1.188145333333333</v>
       </c>
       <c r="H3">
-        <v>1.227021</v>
+        <v>3.564436</v>
       </c>
       <c r="I3">
-        <v>0.02304151636497099</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="J3">
-        <v>0.023041516364971</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>112.487894</v>
       </c>
       <c r="O3">
-        <v>0.6374063547877785</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="P3">
-        <v>0.6374063547877786</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="Q3">
-        <v>15.33611202041933</v>
+        <v>44.55065543753155</v>
       </c>
       <c r="R3">
-        <v>138.025008183774</v>
+        <v>400.955898937784</v>
       </c>
       <c r="S3">
-        <v>0.01468680895497911</v>
+        <v>0.04548934002145468</v>
       </c>
       <c r="T3">
-        <v>0.01468680895497911</v>
+        <v>0.04548934002145468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.409007</v>
+        <v>1.188145333333333</v>
       </c>
       <c r="H4">
-        <v>1.227021</v>
+        <v>3.564436</v>
       </c>
       <c r="I4">
-        <v>0.02304151636497099</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="J4">
-        <v>0.023041516364971</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1977943333333333</v>
+        <v>0.1677223333333333</v>
       </c>
       <c r="N4">
-        <v>0.593383</v>
+        <v>0.503167</v>
       </c>
       <c r="O4">
-        <v>0.003362371554605123</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="P4">
-        <v>0.003362371554605124</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="Q4">
-        <v>0.08089926689366665</v>
+        <v>0.1992785076457778</v>
       </c>
       <c r="R4">
-        <v>0.728093402043</v>
+        <v>1.793506568812</v>
       </c>
       <c r="S4">
-        <v>7.747413920054691E-05</v>
+        <v>0.0002034773159729996</v>
       </c>
       <c r="T4">
-        <v>7.747413920054693E-05</v>
+        <v>0.0002034773159729996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.409007</v>
+        <v>1.188145333333333</v>
       </c>
       <c r="H5">
-        <v>1.227021</v>
+        <v>3.564436</v>
       </c>
       <c r="I5">
-        <v>0.02304151636497099</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="J5">
-        <v>0.023041516364971</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.24704433333333</v>
+        <v>10.79348766666667</v>
       </c>
       <c r="N5">
-        <v>39.741133</v>
+        <v>32.380463</v>
       </c>
       <c r="O5">
-        <v>0.2251909056157304</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="P5">
-        <v>0.2251909056157305</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="Q5">
-        <v>5.418133861643666</v>
+        <v>12.82423200154089</v>
       </c>
       <c r="R5">
-        <v>48.76320475479299</v>
+        <v>115.418088013868</v>
       </c>
       <c r="S5">
-        <v>0.005188739936987491</v>
+        <v>0.01309443922435895</v>
       </c>
       <c r="T5">
-        <v>0.005188739936987493</v>
+        <v>0.01309443922435895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.409007</v>
+        <v>1.188145333333333</v>
       </c>
       <c r="H6">
-        <v>1.227021</v>
+        <v>3.564436</v>
       </c>
       <c r="I6">
-        <v>0.02304151636497099</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="J6">
-        <v>0.023041516364971</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.737712</v>
+        <v>4.888030999999999</v>
       </c>
       <c r="N6">
-        <v>11.213136</v>
+        <v>14.664093</v>
       </c>
       <c r="O6">
-        <v>0.06353860748339382</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="P6">
-        <v>0.06353860748339384</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="Q6">
-        <v>1.528750371984</v>
+        <v>5.807691221838665</v>
       </c>
       <c r="R6">
-        <v>13.758753347856</v>
+        <v>52.26922099654799</v>
       </c>
       <c r="S6">
-        <v>0.001464025864136087</v>
+        <v>0.005930059572305916</v>
       </c>
       <c r="T6">
-        <v>0.001464025864136088</v>
+        <v>0.005930059572305916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.409007</v>
+        <v>1.188145333333333</v>
       </c>
       <c r="H7">
-        <v>1.227021</v>
+        <v>3.564436</v>
       </c>
       <c r="I7">
-        <v>0.02304151636497099</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="J7">
-        <v>0.023041516364971</v>
+        <v>0.07355865779382056</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5123639999999999</v>
+        <v>0.1991723333333333</v>
       </c>
       <c r="N7">
-        <v>1.537092</v>
+        <v>0.597517</v>
       </c>
       <c r="O7">
-        <v>0.00870984577854623</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="P7">
-        <v>0.008709845778546233</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="Q7">
-        <v>0.209560462548</v>
+        <v>0.236645678379111</v>
       </c>
       <c r="R7">
-        <v>1.886044162932</v>
+        <v>2.129811105412</v>
       </c>
       <c r="S7">
-        <v>0.0002006880540427465</v>
+        <v>0.0002416318149008953</v>
       </c>
       <c r="T7">
-        <v>0.0002006880540427466</v>
+        <v>0.0002416318149008953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.049556333333333</v>
       </c>
       <c r="H8">
-        <v>6.148668999999999</v>
+        <v>6.148669</v>
       </c>
       <c r="I8">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="J8">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.634961333333333</v>
+        <v>7.088571000000001</v>
       </c>
       <c r="N8">
-        <v>10.904884</v>
+        <v>21.265713</v>
       </c>
       <c r="O8">
-        <v>0.06179191477994574</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="P8">
-        <v>0.06179191477994575</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="Q8">
-        <v>7.45005802215511</v>
+        <v>14.528425587333</v>
       </c>
       <c r="R8">
-        <v>67.050522199396</v>
+        <v>130.755830285997</v>
       </c>
       <c r="S8">
-        <v>0.007134636127410721</v>
+        <v>0.01483454025598533</v>
       </c>
       <c r="T8">
-        <v>0.007134636127410723</v>
+        <v>0.01483454025598533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.049556333333333</v>
       </c>
       <c r="H9">
-        <v>6.148668999999999</v>
+        <v>6.148669</v>
       </c>
       <c r="I9">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="J9">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>112.487894</v>
       </c>
       <c r="O9">
-        <v>0.6374063547877785</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="P9">
-        <v>0.6374063547877786</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="Q9">
-        <v>76.85009185700955</v>
+        <v>76.85009185700957</v>
       </c>
       <c r="R9">
-        <v>691.650826713086</v>
+        <v>691.6508267130861</v>
       </c>
       <c r="S9">
-        <v>0.07359639886391708</v>
+        <v>0.07846932721484627</v>
       </c>
       <c r="T9">
-        <v>0.07359639886391711</v>
+        <v>0.07846932721484627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.049556333333333</v>
       </c>
       <c r="H10">
-        <v>6.148668999999999</v>
+        <v>6.148669</v>
       </c>
       <c r="I10">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="J10">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1977943333333333</v>
+        <v>0.1677223333333333</v>
       </c>
       <c r="N10">
-        <v>0.593383</v>
+        <v>0.503167</v>
       </c>
       <c r="O10">
-        <v>0.003362371554605123</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="P10">
-        <v>0.003362371554605124</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="Q10">
-        <v>0.4053906285807777</v>
+        <v>0.3437563705247778</v>
       </c>
       <c r="R10">
-        <v>3.648515657226999</v>
+        <v>3.093807334723</v>
       </c>
       <c r="S10">
-        <v>0.0003882271273304104</v>
+        <v>0.0003509993347969743</v>
       </c>
       <c r="T10">
-        <v>0.0003882271273304106</v>
+        <v>0.0003509993347969743</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.049556333333333</v>
       </c>
       <c r="H11">
-        <v>6.148668999999999</v>
+        <v>6.148669</v>
       </c>
       <c r="I11">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="J11">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.24704433333333</v>
+        <v>10.79348766666667</v>
       </c>
       <c r="N11">
-        <v>39.741133</v>
+        <v>32.380463</v>
       </c>
       <c r="O11">
-        <v>0.2251909056157304</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="P11">
-        <v>0.2251909056157305</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="Q11">
-        <v>27.15056361133077</v>
+        <v>22.12186100597189</v>
       </c>
       <c r="R11">
-        <v>244.355072501977</v>
+        <v>199.096749053747</v>
       </c>
       <c r="S11">
-        <v>0.02600105817228632</v>
+        <v>0.02258796974646198</v>
       </c>
       <c r="T11">
-        <v>0.02600105817228634</v>
+        <v>0.02258796974646198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>2.049556333333333</v>
       </c>
       <c r="H12">
-        <v>6.148668999999999</v>
+        <v>6.148669</v>
       </c>
       <c r="I12">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="J12">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.737712</v>
+        <v>4.888030999999999</v>
       </c>
       <c r="N12">
-        <v>11.213136</v>
+        <v>14.664093</v>
       </c>
       <c r="O12">
-        <v>0.06353860748339382</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="P12">
-        <v>0.06353860748339384</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="Q12">
-        <v>7.660651301775998</v>
+        <v>10.01829489357966</v>
       </c>
       <c r="R12">
-        <v>68.94586171598398</v>
+        <v>90.16465404221698</v>
       </c>
       <c r="S12">
-        <v>0.007336313270931605</v>
+        <v>0.01022938087831866</v>
       </c>
       <c r="T12">
-        <v>0.007336313270931608</v>
+        <v>0.01022938087831866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,43 +1228,43 @@
         <v>2.049556333333333</v>
       </c>
       <c r="H13">
-        <v>6.148668999999999</v>
+        <v>6.148669</v>
       </c>
       <c r="I13">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="J13">
-        <v>0.1154622923212315</v>
+        <v>0.1268890334567581</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5123639999999999</v>
+        <v>0.1991723333333333</v>
       </c>
       <c r="N13">
-        <v>1.537092</v>
+        <v>0.597517</v>
       </c>
       <c r="O13">
-        <v>0.00870984577854623</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="P13">
-        <v>0.008709845778546233</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="Q13">
-        <v>1.050118881172</v>
+        <v>0.408214917208111</v>
       </c>
       <c r="R13">
-        <v>9.451069930547998</v>
+        <v>3.673934254873</v>
       </c>
       <c r="S13">
-        <v>0.001005658759355349</v>
+        <v>0.0004168160263488735</v>
       </c>
       <c r="T13">
-        <v>0.00100565875935535</v>
+        <v>0.0004168160263488735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.950489</v>
+        <v>4.451229000000001</v>
       </c>
       <c r="H14">
-        <v>17.851467</v>
+        <v>13.353687</v>
       </c>
       <c r="I14">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591944</v>
       </c>
       <c r="J14">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.634961333333333</v>
+        <v>7.088571000000001</v>
       </c>
       <c r="N14">
-        <v>10.904884</v>
+        <v>21.265713</v>
       </c>
       <c r="O14">
-        <v>0.06179191477994574</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="P14">
-        <v>0.06179191477994575</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="Q14">
-        <v>21.62979742942533</v>
+        <v>31.55285280375901</v>
       </c>
       <c r="R14">
-        <v>194.668176864828</v>
+        <v>283.9756752338311</v>
       </c>
       <c r="S14">
-        <v>0.02071403118064744</v>
+        <v>0.03221767302278394</v>
       </c>
       <c r="T14">
-        <v>0.02071403118064744</v>
+        <v>0.03221767302278394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.950489</v>
+        <v>4.451229000000001</v>
       </c>
       <c r="H15">
-        <v>17.851467</v>
+        <v>13.353687</v>
       </c>
       <c r="I15">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591944</v>
       </c>
       <c r="J15">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591943</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>112.487894</v>
       </c>
       <c r="O15">
-        <v>0.6374063547877785</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="P15">
-        <v>0.6374063547877786</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="Q15">
-        <v>223.1193252933887</v>
+        <v>166.903125307242</v>
       </c>
       <c r="R15">
-        <v>2008.073927640498</v>
+        <v>1502.128127765178</v>
       </c>
       <c r="S15">
-        <v>0.2136728592217362</v>
+        <v>0.1704197826761595</v>
       </c>
       <c r="T15">
-        <v>0.2136728592217363</v>
+        <v>0.1704197826761595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.950489</v>
+        <v>4.451229000000001</v>
       </c>
       <c r="H16">
-        <v>17.851467</v>
+        <v>13.353687</v>
       </c>
       <c r="I16">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591944</v>
       </c>
       <c r="J16">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591943</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1977943333333333</v>
+        <v>0.1677223333333333</v>
       </c>
       <c r="N16">
-        <v>0.593383</v>
+        <v>0.503167</v>
       </c>
       <c r="O16">
-        <v>0.003362371554605123</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="P16">
-        <v>0.003362371554605124</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="Q16">
-        <v>1.176973004762333</v>
+        <v>0.7465705140810001</v>
       </c>
       <c r="R16">
-        <v>10.592757042861</v>
+        <v>6.719134626729001</v>
       </c>
       <c r="S16">
-        <v>0.001127142110275187</v>
+        <v>0.0007623007929174596</v>
       </c>
       <c r="T16">
-        <v>0.001127142110275187</v>
+        <v>0.0007623007929174595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.950489</v>
+        <v>4.451229000000001</v>
       </c>
       <c r="H17">
-        <v>17.851467</v>
+        <v>13.353687</v>
       </c>
       <c r="I17">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591944</v>
       </c>
       <c r="J17">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591943</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.24704433333333</v>
+        <v>10.79348766666667</v>
       </c>
       <c r="N17">
-        <v>39.741133</v>
+        <v>32.380463</v>
       </c>
       <c r="O17">
-        <v>0.2251909056157304</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="P17">
-        <v>0.2251909056157305</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="Q17">
-        <v>78.82639158801233</v>
+        <v>48.044285313009</v>
       </c>
       <c r="R17">
-        <v>709.437524292111</v>
+        <v>432.398567817081</v>
       </c>
       <c r="S17">
-        <v>0.07548902566191963</v>
+        <v>0.04905658085672244</v>
       </c>
       <c r="T17">
-        <v>0.07548902566191965</v>
+        <v>0.04905658085672243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.950489</v>
+        <v>4.451229000000001</v>
       </c>
       <c r="H18">
-        <v>17.851467</v>
+        <v>13.353687</v>
       </c>
       <c r="I18">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591944</v>
       </c>
       <c r="J18">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591943</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.737712</v>
+        <v>4.888030999999999</v>
       </c>
       <c r="N18">
-        <v>11.213136</v>
+        <v>14.664093</v>
       </c>
       <c r="O18">
-        <v>0.06353860748339382</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="P18">
-        <v>0.06353860748339384</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="Q18">
-        <v>22.241214141168</v>
+        <v>21.757745340099</v>
       </c>
       <c r="R18">
-        <v>200.170927270512</v>
+        <v>195.819708060891</v>
       </c>
       <c r="S18">
-        <v>0.02129956162182379</v>
+        <v>0.02221618214492478</v>
       </c>
       <c r="T18">
-        <v>0.02129956162182379</v>
+        <v>0.02221618214492477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.950489</v>
+        <v>4.451229000000001</v>
       </c>
       <c r="H19">
-        <v>17.851467</v>
+        <v>13.353687</v>
       </c>
       <c r="I19">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591944</v>
       </c>
       <c r="J19">
-        <v>0.3352223548083038</v>
+        <v>0.2755777610591943</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5123639999999999</v>
+        <v>0.1991723333333333</v>
       </c>
       <c r="N19">
-        <v>1.537092</v>
+        <v>0.597517</v>
       </c>
       <c r="O19">
-        <v>0.00870984577854623</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="P19">
-        <v>0.008709845778546233</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="Q19">
-        <v>3.048816345996</v>
+        <v>0.8865616661310001</v>
       </c>
       <c r="R19">
-        <v>27.439347113964</v>
+        <v>7.979054995179</v>
       </c>
       <c r="S19">
-        <v>0.002919735011901431</v>
+        <v>0.0009052415656862665</v>
       </c>
       <c r="T19">
-        <v>0.002919735011901432</v>
+        <v>0.0009052415656862663</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.483883666666667</v>
+        <v>2.55462</v>
       </c>
       <c r="H20">
-        <v>7.451651</v>
+        <v>7.66386</v>
       </c>
       <c r="I20">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="J20">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.634961333333333</v>
+        <v>7.088571000000001</v>
       </c>
       <c r="N20">
-        <v>10.904884</v>
+        <v>21.265713</v>
       </c>
       <c r="O20">
-        <v>0.06179191477994574</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="P20">
-        <v>0.06179191477994575</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="Q20">
-        <v>9.028821084831556</v>
+        <v>18.10860524802</v>
       </c>
       <c r="R20">
-        <v>81.25938976348401</v>
+        <v>162.97744723218</v>
       </c>
       <c r="S20">
-        <v>0.008646557235957284</v>
+        <v>0.01849015448485447</v>
       </c>
       <c r="T20">
-        <v>0.008646557235957288</v>
+        <v>0.01849015448485447</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.483883666666667</v>
+        <v>2.55462</v>
       </c>
       <c r="H21">
-        <v>7.451651</v>
+        <v>7.66386</v>
       </c>
       <c r="I21">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="J21">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>112.487894</v>
       </c>
       <c r="O21">
-        <v>0.6374063547877785</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="P21">
-        <v>0.6374063547877786</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="Q21">
-        <v>93.1356142014438</v>
+        <v>95.78794125676001</v>
       </c>
       <c r="R21">
-        <v>838.2205278129941</v>
+        <v>862.09147131084</v>
       </c>
       <c r="S21">
-        <v>0.08919242183807695</v>
+        <v>0.09780619806803256</v>
       </c>
       <c r="T21">
-        <v>0.08919242183807698</v>
+        <v>0.09780619806803256</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.483883666666667</v>
+        <v>2.55462</v>
       </c>
       <c r="H22">
-        <v>7.451651</v>
+        <v>7.66386</v>
       </c>
       <c r="I22">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="J22">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1977943333333333</v>
+        <v>0.1677223333333333</v>
       </c>
       <c r="N22">
-        <v>0.593383</v>
+        <v>0.503167</v>
       </c>
       <c r="O22">
-        <v>0.003362371554605123</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="P22">
-        <v>0.003362371554605124</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="Q22">
-        <v>0.4912981139258889</v>
+        <v>0.42846682718</v>
       </c>
       <c r="R22">
-        <v>4.421683025333</v>
+        <v>3.85620144462</v>
       </c>
       <c r="S22">
-        <v>0.0004704974461300129</v>
+        <v>0.0004374946450975226</v>
       </c>
       <c r="T22">
-        <v>0.0004704974461300131</v>
+        <v>0.0004374946450975226</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.483883666666667</v>
+        <v>2.55462</v>
       </c>
       <c r="H23">
-        <v>7.451651</v>
+        <v>7.66386</v>
       </c>
       <c r="I23">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="J23">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.24704433333333</v>
+        <v>10.79348766666667</v>
       </c>
       <c r="N23">
-        <v>39.741133</v>
+        <v>32.380463</v>
       </c>
       <c r="O23">
-        <v>0.2251909056157304</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="P23">
-        <v>0.2251909056157305</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="Q23">
-        <v>32.90411705117589</v>
+        <v>27.57325946302</v>
       </c>
       <c r="R23">
-        <v>296.137053460583</v>
+        <v>248.15933516718</v>
       </c>
       <c r="S23">
-        <v>0.03151101663312427</v>
+        <v>0.02815422944723811</v>
       </c>
       <c r="T23">
-        <v>0.03151101663312428</v>
+        <v>0.02815422944723811</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.483883666666667</v>
+        <v>2.55462</v>
       </c>
       <c r="H24">
-        <v>7.451651</v>
+        <v>7.66386</v>
       </c>
       <c r="I24">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="J24">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.737712</v>
+        <v>4.888030999999999</v>
       </c>
       <c r="N24">
-        <v>11.213136</v>
+        <v>14.664093</v>
       </c>
       <c r="O24">
-        <v>0.06353860748339382</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="P24">
-        <v>0.06353860748339384</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="Q24">
-        <v>9.284041787504</v>
+        <v>12.48706175322</v>
       </c>
       <c r="R24">
-        <v>83.55637608753599</v>
+        <v>112.38355577898</v>
       </c>
       <c r="S24">
-        <v>0.008890972358676452</v>
+        <v>0.01275016478169686</v>
       </c>
       <c r="T24">
-        <v>0.008890972358676455</v>
+        <v>0.01275016478169686</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.483883666666667</v>
+        <v>2.55462</v>
       </c>
       <c r="H25">
-        <v>7.451651</v>
+        <v>7.66386</v>
       </c>
       <c r="I25">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="J25">
-        <v>0.1399302362898047</v>
+        <v>0.1581577716978927</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5123639999999999</v>
+        <v>0.1991723333333333</v>
       </c>
       <c r="N25">
-        <v>1.537092</v>
+        <v>0.597517</v>
       </c>
       <c r="O25">
-        <v>0.00870984577854623</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="P25">
-        <v>0.008709845778546233</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="Q25">
-        <v>1.272652570988</v>
+        <v>0.5088096261799999</v>
       </c>
       <c r="R25">
-        <v>11.453873138892</v>
+        <v>4.57928663562</v>
       </c>
       <c r="S25">
-        <v>0.001218770777839732</v>
+        <v>0.0005195302709731288</v>
       </c>
       <c r="T25">
-        <v>0.001218770777839733</v>
+        <v>0.0005195302709731288</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.535724333333333</v>
+        <v>3.340587333333333</v>
       </c>
       <c r="H26">
-        <v>7.607173</v>
+        <v>10.021762</v>
       </c>
       <c r="I26">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="J26">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.634961333333333</v>
+        <v>7.088571000000001</v>
       </c>
       <c r="N26">
-        <v>10.904884</v>
+        <v>21.265713</v>
       </c>
       <c r="O26">
-        <v>0.06179191477994574</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="P26">
-        <v>0.06179191477994575</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="Q26">
-        <v>9.217259903659112</v>
+        <v>23.679990494034</v>
       </c>
       <c r="R26">
-        <v>82.95533913293201</v>
+        <v>213.119914446306</v>
       </c>
       <c r="S26">
-        <v>0.008827017898225358</v>
+        <v>0.02417892910236411</v>
       </c>
       <c r="T26">
-        <v>0.00882701789822536</v>
+        <v>0.0241789291023641</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.535724333333333</v>
+        <v>3.340587333333333</v>
       </c>
       <c r="H27">
-        <v>7.607173</v>
+        <v>10.021762</v>
       </c>
       <c r="I27">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="J27">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>112.487894</v>
       </c>
       <c r="O27">
-        <v>0.6374063547877785</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="P27">
-        <v>0.6374063547877786</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="Q27">
-        <v>95.07943000707358</v>
+        <v>125.2585446165809</v>
       </c>
       <c r="R27">
-        <v>855.7148700636621</v>
+        <v>1127.326901549228</v>
       </c>
       <c r="S27">
-        <v>0.09105394002097379</v>
+        <v>0.1278977485448171</v>
       </c>
       <c r="T27">
-        <v>0.09105394002097382</v>
+        <v>0.1278977485448171</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.535724333333333</v>
+        <v>3.340587333333333</v>
       </c>
       <c r="H28">
-        <v>7.607173</v>
+        <v>10.021762</v>
       </c>
       <c r="I28">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="J28">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1977943333333333</v>
+        <v>0.1677223333333333</v>
       </c>
       <c r="N28">
-        <v>0.593383</v>
+        <v>0.503167</v>
       </c>
       <c r="O28">
-        <v>0.003362371554605123</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="P28">
-        <v>0.003362371554605124</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="Q28">
-        <v>0.5015519040287778</v>
+        <v>0.5602911022504444</v>
       </c>
       <c r="R28">
-        <v>4.513967136259001</v>
+        <v>5.042619920253999</v>
       </c>
       <c r="S28">
-        <v>0.0004803171094257084</v>
+        <v>0.0005720964643719794</v>
       </c>
       <c r="T28">
-        <v>0.0004803171094257085</v>
+        <v>0.0005720964643719793</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.535724333333333</v>
+        <v>3.340587333333333</v>
       </c>
       <c r="H29">
-        <v>7.607173</v>
+        <v>10.021762</v>
       </c>
       <c r="I29">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="J29">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.24704433333333</v>
+        <v>10.79348766666667</v>
       </c>
       <c r="N29">
-        <v>39.741133</v>
+        <v>32.380463</v>
       </c>
       <c r="O29">
-        <v>0.2251909056157304</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="P29">
-        <v>0.2251909056157305</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="Q29">
-        <v>33.59085266077878</v>
+        <v>36.05658818175622</v>
       </c>
       <c r="R29">
-        <v>302.317673947009</v>
+        <v>324.5092936358059</v>
       </c>
       <c r="S29">
-        <v>0.03216867710713423</v>
+        <v>0.03681630233506509</v>
       </c>
       <c r="T29">
-        <v>0.03216867710713424</v>
+        <v>0.03681630233506508</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.535724333333333</v>
+        <v>3.340587333333333</v>
       </c>
       <c r="H30">
-        <v>7.607173</v>
+        <v>10.021762</v>
       </c>
       <c r="I30">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="J30">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.737712</v>
+        <v>4.888030999999999</v>
       </c>
       <c r="N30">
-        <v>11.213136</v>
+        <v>14.664093</v>
       </c>
       <c r="O30">
-        <v>0.06353860748339382</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="P30">
-        <v>0.06353860748339384</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="Q30">
-        <v>9.477807269392001</v>
+        <v>16.32889444354066</v>
       </c>
       <c r="R30">
-        <v>85.30026542452799</v>
+        <v>146.960049991866</v>
       </c>
       <c r="S30">
-        <v>0.009076534162787525</v>
+        <v>0.01667294508288876</v>
       </c>
       <c r="T30">
-        <v>0.009076534162787527</v>
+        <v>0.01667294508288876</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.535724333333333</v>
+        <v>3.340587333333333</v>
       </c>
       <c r="H31">
-        <v>7.607173</v>
+        <v>10.021762</v>
       </c>
       <c r="I31">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="J31">
-        <v>0.1428506938109988</v>
+        <v>0.206817393116082</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5123639999999999</v>
+        <v>0.1991723333333333</v>
       </c>
       <c r="N31">
-        <v>1.537092</v>
+        <v>0.597517</v>
       </c>
       <c r="O31">
-        <v>0.00870984577854623</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="P31">
-        <v>0.008709845778546233</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="Q31">
-        <v>1.299213862324</v>
+        <v>0.6653525738837777</v>
       </c>
       <c r="R31">
-        <v>11.692924760916</v>
+        <v>5.988173164953999</v>
       </c>
       <c r="S31">
-        <v>0.001244207512452128</v>
+        <v>0.0006793715865749383</v>
       </c>
       <c r="T31">
-        <v>0.001244207512452128</v>
+        <v>0.0006793715865749382</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.322211333333334</v>
+        <v>2.568214</v>
       </c>
       <c r="H32">
-        <v>12.966634</v>
+        <v>7.704642000000001</v>
       </c>
       <c r="I32">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="J32">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.634961333333333</v>
+        <v>7.088571000000001</v>
       </c>
       <c r="N32">
-        <v>10.904884</v>
+        <v>21.265713</v>
       </c>
       <c r="O32">
-        <v>0.06179191477994574</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="P32">
-        <v>0.06179191477994575</v>
+        <v>0.1169095535828218</v>
       </c>
       <c r="Q32">
-        <v>15.71107107116178</v>
+        <v>18.204967282194</v>
       </c>
       <c r="R32">
-        <v>141.399639640456</v>
+        <v>163.844705539746</v>
       </c>
       <c r="S32">
-        <v>0.01504589292207992</v>
+        <v>0.01858854687200682</v>
       </c>
       <c r="T32">
-        <v>0.01504589292207992</v>
+        <v>0.01858854687200682</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.322211333333334</v>
+        <v>2.568214</v>
       </c>
       <c r="H33">
-        <v>12.966634</v>
+        <v>7.704642000000001</v>
       </c>
       <c r="I33">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="J33">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>112.487894</v>
       </c>
       <c r="O33">
-        <v>0.6374063547877785</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="P33">
-        <v>0.6374063547877786</v>
+        <v>0.6184090545664647</v>
       </c>
       <c r="Q33">
-        <v>162.0654834365329</v>
+        <v>96.29766140043868</v>
       </c>
       <c r="R33">
-        <v>1458.589350928796</v>
+        <v>866.6789526039481</v>
       </c>
       <c r="S33">
-        <v>0.1552039258880953</v>
+        <v>0.09832665804115455</v>
       </c>
       <c r="T33">
-        <v>0.1552039258880953</v>
+        <v>0.09832665804115455</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.322211333333334</v>
+        <v>2.568214</v>
       </c>
       <c r="H34">
-        <v>12.966634</v>
+        <v>7.704642000000001</v>
       </c>
       <c r="I34">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="J34">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1977943333333333</v>
+        <v>0.1677223333333333</v>
       </c>
       <c r="N34">
-        <v>0.593383</v>
+        <v>0.503167</v>
       </c>
       <c r="O34">
-        <v>0.003362371554605123</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="P34">
-        <v>0.003362371554605124</v>
+        <v>0.002766191255736767</v>
       </c>
       <c r="Q34">
-        <v>0.8549089092024444</v>
+        <v>0.4307468445793334</v>
       </c>
       <c r="R34">
-        <v>7.694180182822</v>
+        <v>3.876721601214001</v>
       </c>
       <c r="S34">
-        <v>0.0008187136222432578</v>
+        <v>0.0004398227025798314</v>
       </c>
       <c r="T34">
-        <v>0.0008187136222432582</v>
+        <v>0.0004398227025798314</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.322211333333334</v>
+        <v>2.568214</v>
       </c>
       <c r="H35">
-        <v>12.966634</v>
+        <v>7.704642000000001</v>
       </c>
       <c r="I35">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="J35">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>13.24704433333333</v>
+        <v>10.79348766666667</v>
       </c>
       <c r="N35">
-        <v>39.741133</v>
+        <v>32.380463</v>
       </c>
       <c r="O35">
-        <v>0.2251909056157304</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="P35">
-        <v>0.2251909056157305</v>
+        <v>0.1780135692668794</v>
       </c>
       <c r="Q35">
-        <v>57.25652515070245</v>
+        <v>27.71998613436067</v>
       </c>
       <c r="R35">
-        <v>515.308726356322</v>
+        <v>249.479875209246</v>
       </c>
       <c r="S35">
-        <v>0.05483238810427846</v>
+        <v>0.02830404765703282</v>
       </c>
       <c r="T35">
-        <v>0.05483238810427849</v>
+        <v>0.02830404765703282</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.322211333333334</v>
+        <v>2.568214</v>
       </c>
       <c r="H36">
-        <v>12.966634</v>
+        <v>7.704642000000001</v>
       </c>
       <c r="I36">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="J36">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.737712</v>
+        <v>4.888030999999999</v>
       </c>
       <c r="N36">
-        <v>11.213136</v>
+        <v>14.664093</v>
       </c>
       <c r="O36">
-        <v>0.06353860748339382</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="P36">
-        <v>0.06353860748339384</v>
+        <v>0.08061674519575154</v>
       </c>
       <c r="Q36">
-        <v>16.155181167136</v>
+        <v>12.553509646634</v>
       </c>
       <c r="R36">
-        <v>145.396630504224</v>
+        <v>112.981586819706</v>
       </c>
       <c r="S36">
-        <v>0.01547120020503836</v>
+        <v>0.01281801273561658</v>
       </c>
       <c r="T36">
-        <v>0.01547120020503836</v>
+        <v>0.01281801273561658</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.322211333333334</v>
+        <v>2.568214</v>
       </c>
       <c r="H37">
-        <v>12.966634</v>
+        <v>7.704642000000001</v>
       </c>
       <c r="I37">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="J37">
-        <v>0.2434929064046902</v>
+        <v>0.1589993828762523</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5123639999999999</v>
+        <v>0.1991723333333333</v>
       </c>
       <c r="N37">
-        <v>1.537092</v>
+        <v>0.597517</v>
       </c>
       <c r="O37">
-        <v>0.00870984577854623</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="P37">
-        <v>0.008709845778546233</v>
+        <v>0.003284886132345852</v>
       </c>
       <c r="Q37">
-        <v>2.214545487592</v>
+        <v>0.5115171748793333</v>
       </c>
       <c r="R37">
-        <v>19.930909388328</v>
+        <v>4.603654573914</v>
       </c>
       <c r="S37">
-        <v>0.002120785662954843</v>
+        <v>0.0005222948678617499</v>
       </c>
       <c r="T37">
-        <v>0.002120785662954844</v>
+        <v>0.0005222948678617499</v>
       </c>
     </row>
   </sheetData>
